--- a/examples/ex070.ESP.xlsx
+++ b/examples/ex070.ESP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BBE3C5-2C96-4F87-831E-02C53F6D12C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA22BC9-8BA4-4B3A-9816-85AC0A413840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1380" windowWidth="31020" windowHeight="18120" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="3840" windowWidth="25455" windowHeight="12945" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="110" r:id="rId1"/>
@@ -1290,67 +1290,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1982.9463492467667</c:v>
+                  <c:v>1977.0592333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1957.0064939051942</c:v>
+                  <c:v>1955.3032333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1960.9435923638921</c:v>
+                  <c:v>1950.9076533333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1981.4562801439863</c:v>
+                  <c:v>1965.05043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2005.9740766341761</c:v>
+                  <c:v>1997.4151945481481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2024.9064355198</c:v>
+                  <c:v>2023.6445238095239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2031.2780891910111</c:v>
+                  <c:v>2024.5704484571427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020.3643931509514</c:v>
+                  <c:v>2019.001437498134</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1989.3266704239254</c:v>
+                  <c:v>1988.5365368434273</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1936.8475559635747</c:v>
+                  <c:v>1922.3785678842496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1862.7663410610517</c:v>
+                  <c:v>1850.5771854374627</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1767.7143177531982</c:v>
+                  <c:v>1760.4814414113655</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1652.7501232307104</c:v>
+                  <c:v>1639.5996074343986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1518.9950842463231</c:v>
+                  <c:v>1510.7995998787185</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1367.2685615229796</c:v>
+                  <c:v>1369.4312864901201</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1197.723294162008</c:v>
+                  <c:v>1208.7462447883975</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1009.480744051288</c:v>
+                  <c:v>1018.6680660649297</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>800.26644027343752</c:v>
+                  <c:v>791.86979680000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>566.0453235139787</c:v>
+                  <c:v>552.87816675555564</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300.65709046950894</c:v>
+                  <c:v>289.35480000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-5.8969756161486586E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,67 +1493,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>5.2718053435386845E-3</c:v>
+                  <c:v>5.3222222222222212E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7143682422721048E-2</c:v>
+                  <c:v>9.7322222222222213E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18672175849769534</c:v>
+                  <c:v>0.18688296296296297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26722161174998837</c:v>
+                  <c:v>0.26830500000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33760784545433942</c:v>
+                  <c:v>0.33640296296296296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39725271325269551</c:v>
+                  <c:v>0.39476851851851852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44586520719926198</c:v>
+                  <c:v>0.44585600000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48342014580555509</c:v>
+                  <c:v>0.48608666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5100872620854523</c:v>
+                  <c:v>0.5120806506899056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52616029160024458</c:v>
+                  <c:v>0.52654305882352948</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.53198606050368746</c:v>
+                  <c:v>0.53146444907017465</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52789357358705213</c:v>
+                  <c:v>0.52530713966486131</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51412310232417835</c:v>
+                  <c:v>0.51165725907974968</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.49075527291652421</c:v>
+                  <c:v>0.49253633052046891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45764015433821842</c:v>
+                  <c:v>0.45750336646250173</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41432634638111182</c:v>
+                  <c:v>0.41032534236886714</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35999006769982811</c:v>
+                  <c:v>0.35919520174482006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.29336424385681648</c:v>
+                  <c:v>0.29873857142857141</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21266759536740198</c:v>
+                  <c:v>0.21116063492063494</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11553372574483833</c:v>
+                  <c:v>0.11115000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>4.0657581468206416E-19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,67 +2208,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1982.9463492467667</c:v>
+                  <c:v>1977.0592333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1957.0064939051942</c:v>
+                  <c:v>1955.3032333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1960.9435923638921</c:v>
+                  <c:v>1950.9076533333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1981.4562801439863</c:v>
+                  <c:v>1965.05043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2005.9740766341761</c:v>
+                  <c:v>1997.4151945481481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2024.9064355198</c:v>
+                  <c:v>2023.6445238095239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2031.2780891910111</c:v>
+                  <c:v>2024.5704484571427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020.3643931509514</c:v>
+                  <c:v>2019.001437498134</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1989.3266704239254</c:v>
+                  <c:v>1988.5365368434273</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1936.8475559635747</c:v>
+                  <c:v>1922.3785678842496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1862.7663410610517</c:v>
+                  <c:v>1850.5771854374627</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1767.7143177531982</c:v>
+                  <c:v>1760.4814414113655</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1652.7501232307104</c:v>
+                  <c:v>1639.5996074343986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1518.9950842463231</c:v>
+                  <c:v>1510.7995998787185</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1367.2685615229796</c:v>
+                  <c:v>1369.4312864901201</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1197.723294162008</c:v>
+                  <c:v>1208.7462447883975</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1009.480744051288</c:v>
+                  <c:v>1018.6680660649297</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>800.26644027343752</c:v>
+                  <c:v>791.86979680000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>566.0453235139787</c:v>
+                  <c:v>552.87816675555564</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300.65709046950894</c:v>
+                  <c:v>289.35480000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-5.8969756161486586E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2411,67 +2411,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>40132.458058047268</c:v>
+                  <c:v>39986.00277777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42203.511280989362</c:v>
+                  <c:v>42032.102777777785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44904.308034678448</c:v>
+                  <c:v>44714.527407407411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48027.734487828398</c:v>
+                  <c:v>47908.848750000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51476.945783488867</c:v>
+                  <c:v>51208.098666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55165.821933100378</c:v>
+                  <c:v>54908</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59018.52810186689</c:v>
+                  <c:v>58844.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62969.074894128375</c:v>
+                  <c:v>62781.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66960.878638733309</c:v>
+                  <c:v>66718.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70946.321674411302</c:v>
+                  <c:v>70655.200000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74886.312635145558</c:v>
+                  <c:v>74572.458787077805</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78749.846735545521</c:v>
+                  <c:v>78435.47122188202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>82513.566056219293</c:v>
+                  <c:v>82228.459477783195</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86161.319829146378</c:v>
+                  <c:v>85824.900237699418</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89683.724723050022</c:v>
+                  <c:v>89274.632868257089</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>93077.725128769918</c:v>
+                  <c:v>92672.643644161086</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96346.153444634736</c:v>
+                  <c:v>96009.582794520553</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99497.290361834501</c:v>
+                  <c:v>99145.200000000012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>102544.42514979342</c:v>
+                  <c:v>102097.80000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>105505.41594154228</c:v>
+                  <c:v>105050.40000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>108402.25001909083</c:v>
+                  <c:v>108003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3114,67 +3114,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>77.969308742246682</c:v>
+                  <c:v>77.653679709237593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129.74486214102967</c:v>
+                  <c:v>129.41673884473215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134.11156223658077</c:v>
+                  <c:v>133.17376066492685</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.09481020511367</c:v>
+                  <c:v>136.24704576120533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138.18162940123074</c:v>
+                  <c:v>138.02144015740984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136.29759537064527</c:v>
+                  <c:v>135.86732096713467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130.1286293390865</c:v>
+                  <c:v>129.79692418559554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>116.93588873820266</c:v>
+                  <c:v>116.84194942723494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.186572087555902</c:v>
+                  <c:v>79.723370427708559</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-17.552562353048739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-21.514961696106297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-22.568639397347187</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-22.978109279786842</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-23.127425770378036</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-23.164248198496935</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-23.154358419517266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-23.135653795019646</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-23.141250085591555</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-23.146681557581989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-23.146681557581978</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-23.146681557581982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,28 +3320,28 @@
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.792336519820282</c:v>
+                  <c:v>59.499181557478551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.201071161251761</c:v>
+                  <c:v>29.10170440644535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.89850607729943</c:v>
+                  <c:v>18.851655532886454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.803897561569897</c:v>
+                  <c:v>13.69569720602982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.874322577275663</c:v>
+                  <c:v>10.829644583978308</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1256312815988707</c:v>
+                  <c:v>9.0826068727643587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1990032746672057</c:v>
+                  <c:v>8.1476538079321159</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3062617324325458</c:v>
+                  <c:v>8.2981334675662879</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3887,67 +3887,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>77.969308742246682</c:v>
+                  <c:v>77.653679709237593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129.74486214102967</c:v>
+                  <c:v>129.41673884473215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134.11156223658077</c:v>
+                  <c:v>133.17376066492685</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.09481020511367</c:v>
+                  <c:v>136.24704576120533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138.18162940123074</c:v>
+                  <c:v>138.02144015740984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136.29759537064527</c:v>
+                  <c:v>135.86732096713467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130.1286293390865</c:v>
+                  <c:v>129.79692418559554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>116.93588873820266</c:v>
+                  <c:v>116.84194942723494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.186572087555902</c:v>
+                  <c:v>79.723370427708559</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-17.552562353048739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-21.514961696106297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-22.568639397347187</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-22.978109279786842</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-23.127425770378036</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-23.164248198496935</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-23.154358419517266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-23.135653795019646</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-23.141250085591555</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-23.146681557581989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-23.146681557581978</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-23.146681557581982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4502,67 +4502,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>25.280686792751496</c:v>
+                  <c:v>25.435990633857386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.927264632644153</c:v>
+                  <c:v>26.104004887568792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.20692923795751</c:v>
+                  <c:v>25.539233598151483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.77767234637858</c:v>
+                  <c:v>25.051755739829233</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.473628750159179</c:v>
+                  <c:v>25.575066937722369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.314354842631147</c:v>
+                  <c:v>27.436516829672186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.044572389859965</c:v>
+                  <c:v>30.10150711803233</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.433963230656957</c:v>
+                  <c:v>33.473195387010918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.342557603400138</c:v>
+                  <c:v>37.480582758667708</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.68911535508488</c:v>
+                  <c:v>41.799418276882506</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.466389569008655</c:v>
+                  <c:v>46.591705779382494</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.726347114453191</c:v>
+                  <c:v>51.876875247314985</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.611791650357162</c:v>
+                  <c:v>57.682209043766932</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.491639023690439</c:v>
+                  <c:v>64.381758575354908</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73.256331851365701</c:v>
+                  <c:v>73.020615846621325</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87.051234515836015</c:v>
+                  <c:v>87.709528511356226</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>107.55113194555614</c:v>
+                  <c:v>108.55987981812717</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>131.22579360166841</c:v>
+                  <c:v>131.95331536276151</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>150</c:v>
+                  <c:v>153.50605867999371</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>150</c:v>
+                  <c:v>164.78965800685233</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>150</c:v>
+                  <c:v>175.00727056905632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6267,6 +6267,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Info"/>
+      <sheetName val="UniflocVBA_7"/>
     </sheetNames>
     <definedNames>
       <definedName name="ESP_dp_atm"/>
@@ -6283,7 +6284,8 @@
       <definedName name="PVT_encode_string"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6877,8 +6879,8 @@
   </sheetPr>
   <dimension ref="A1:AK184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6905,7 +6907,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.16</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7326,7 +7328,7 @@
       </c>
       <c r="C40" s="13">
         <f>INT(Head_ESP_/[1]!ESP_head_m(Q_ESP_,1,,PumpID_))</f>
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>8</v>
@@ -7532,37 +7534,37 @@
       </c>
       <c r="D54" s="16">
         <f>[1]!ESP_head_m(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1982.9463492467667</v>
+        <v>1977.0592333333332</v>
       </c>
       <c r="E54" s="23">
         <f>[1]!ESP_eff_fr(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>5.2718053435386845E-3</v>
+        <v>5.3222222222222212E-3</v>
       </c>
       <c r="F54" s="16">
         <f>[1]!ESP_power_W(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>40132.458058047268</v>
+        <v>39986.00277777778</v>
       </c>
       <c r="G54" s="23">
         <f t="array" ref="G54:H54">[1]!ESP_dp_atm(C54,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>77.969308742246682</v>
+        <v>77.653679709237593</v>
       </c>
       <c r="H54" s="23">
         <v>219</v>
       </c>
       <c r="I54" s="24">
         <f t="shared" ref="I54" si="0">G54+Pintake_</f>
-        <v>111.96930874224668</v>
+        <v>111.65367970923759</v>
       </c>
       <c r="J54" s="24">
         <f t="array" ref="J54:K54">[1]!ESP_dp_atm(C54,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>124.7193132072485</v>
+        <v>124.56400936614261</v>
       </c>
       <c r="K54" s="24">
         <v>0</v>
       </c>
       <c r="L54" s="24">
         <f t="shared" ref="L54" si="1">Pdis-J54</f>
-        <v>25.280686792751496</v>
+        <v>25.435990633857386</v>
       </c>
     </row>
     <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7572,37 +7574,37 @@
       </c>
       <c r="D55" s="16">
         <f>[1]!ESP_head_m(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1957.0064939051942</v>
+        <v>1955.3032333333335</v>
       </c>
       <c r="E55" s="23">
         <f>[1]!ESP_eff_fr(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>9.7143682422721048E-2</v>
+        <v>9.7322222222222213E-2</v>
       </c>
       <c r="F55" s="16">
         <f>[1]!ESP_power_W(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>42203.511280989362</v>
+        <v>42032.102777777785</v>
       </c>
       <c r="G55" s="23">
         <f t="array" ref="G55:H55">[1]!ESP_dp_atm(C55,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>129.74486214102967</v>
+        <v>129.41673884473215</v>
       </c>
       <c r="H55" s="23">
-        <v>59.792336519820282</v>
+        <v>59.499181557478551</v>
       </c>
       <c r="I55" s="24">
         <f t="shared" ref="I55:I74" si="2">G55+Pintake_</f>
-        <v>163.74486214102967</v>
+        <v>163.41673884473215</v>
       </c>
       <c r="J55" s="24">
         <f t="array" ref="J55:K55">[1]!ESP_dp_atm(C55,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>124.07273536735585</v>
+        <v>123.89599511243121</v>
       </c>
       <c r="K55" s="24">
         <v>0</v>
       </c>
       <c r="L55" s="24">
         <f t="shared" ref="L55:L74" si="3">Pdis-J55</f>
-        <v>25.927264632644153</v>
+        <v>26.104004887568792</v>
       </c>
     </row>
     <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7612,37 +7614,37 @@
       </c>
       <c r="D56" s="16">
         <f>[1]!ESP_head_m(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1960.9435923638921</v>
+        <v>1950.9076533333334</v>
       </c>
       <c r="E56" s="23">
         <f>[1]!ESP_eff_fr(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.18672175849769534</v>
+        <v>0.18688296296296297</v>
       </c>
       <c r="F56" s="16">
         <f>[1]!ESP_power_W(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>44904.308034678448</v>
+        <v>44714.527407407411</v>
       </c>
       <c r="G56" s="23">
         <f t="array" ref="G56:H56">[1]!ESP_dp_atm(C56,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>134.11156223658077</v>
+        <v>133.17376066492685</v>
       </c>
       <c r="H56" s="23">
-        <v>29.201071161251761</v>
+        <v>29.10170440644535</v>
       </c>
       <c r="I56" s="24">
         <f t="shared" si="2"/>
-        <v>168.11156223658077</v>
+        <v>167.17376066492685</v>
       </c>
       <c r="J56" s="24">
         <f t="array" ref="J56:K56">[1]!ESP_dp_atm(C56,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>124.79307076204249</v>
+        <v>124.46076640184852</v>
       </c>
       <c r="K56" s="24">
         <v>0</v>
       </c>
       <c r="L56" s="24">
         <f t="shared" si="3"/>
-        <v>25.20692923795751</v>
+        <v>25.539233598151483</v>
       </c>
     </row>
     <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7652,37 +7654,37 @@
       </c>
       <c r="D57" s="16">
         <f>[1]!ESP_head_m(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1981.4562801439863</v>
+        <v>1965.05043</v>
       </c>
       <c r="E57" s="23">
         <f>[1]!ESP_eff_fr(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.26722161174998837</v>
+        <v>0.26830500000000002</v>
       </c>
       <c r="F57" s="16">
         <f>[1]!ESP_power_W(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>48027.734487828398</v>
+        <v>47908.848750000005</v>
       </c>
       <c r="G57" s="23">
         <f t="array" ref="G57:H57">[1]!ESP_dp_atm(C57,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>137.09481020511367</v>
+        <v>136.24704576120533</v>
       </c>
       <c r="H57" s="23">
-        <v>18.89850607729943</v>
+        <v>18.851655532886454</v>
       </c>
       <c r="I57" s="24">
         <f t="shared" si="2"/>
-        <v>171.09481020511367</v>
+        <v>170.24704576120533</v>
       </c>
       <c r="J57" s="24">
         <f t="array" ref="J57:K57">[1]!ESP_dp_atm(C57,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>125.22232765362142</v>
+        <v>124.94824426017077</v>
       </c>
       <c r="K57" s="24">
         <v>0</v>
       </c>
       <c r="L57" s="24">
         <f t="shared" si="3"/>
-        <v>24.77767234637858</v>
+        <v>25.051755739829233</v>
       </c>
     </row>
     <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7692,37 +7694,37 @@
       </c>
       <c r="D58" s="16">
         <f>[1]!ESP_head_m(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2005.9740766341761</v>
+        <v>1997.4151945481481</v>
       </c>
       <c r="E58" s="23">
         <f>[1]!ESP_eff_fr(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.33760784545433942</v>
+        <v>0.33640296296296296</v>
       </c>
       <c r="F58" s="16">
         <f>[1]!ESP_power_W(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>51476.945783488867</v>
+        <v>51208.098666666665</v>
       </c>
       <c r="G58" s="23">
         <f t="array" ref="G58:H58">[1]!ESP_dp_atm(C58,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>138.18162940123074</v>
+        <v>138.02144015740984</v>
       </c>
       <c r="H58" s="23">
-        <v>13.803897561569897</v>
+        <v>13.69569720602982</v>
       </c>
       <c r="I58" s="24">
         <f t="shared" si="2"/>
-        <v>172.18162940123074</v>
+        <v>172.02144015740984</v>
       </c>
       <c r="J58" s="24">
         <f t="array" ref="J58:K58">[1]!ESP_dp_atm(C58,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>124.52637124984082</v>
+        <v>124.42493306227763</v>
       </c>
       <c r="K58" s="24">
         <v>0</v>
       </c>
       <c r="L58" s="24">
         <f t="shared" si="3"/>
-        <v>25.473628750159179</v>
+        <v>25.575066937722369</v>
       </c>
     </row>
     <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7732,37 +7734,37 @@
       </c>
       <c r="D59" s="16">
         <f>[1]!ESP_head_m(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2024.9064355198</v>
+        <v>2023.6445238095239</v>
       </c>
       <c r="E59" s="23">
         <f>[1]!ESP_eff_fr(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.39725271325269551</v>
+        <v>0.39476851851851852</v>
       </c>
       <c r="F59" s="16">
         <f>[1]!ESP_power_W(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>55165.821933100378</v>
+        <v>54908</v>
       </c>
       <c r="G59" s="23">
         <f t="array" ref="G59:H59">[1]!ESP_dp_atm(C59,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>136.29759537064527</v>
+        <v>135.86732096713467</v>
       </c>
       <c r="H59" s="23">
-        <v>10.874322577275663</v>
+        <v>10.829644583978308</v>
       </c>
       <c r="I59" s="24">
         <f t="shared" si="2"/>
-        <v>170.29759537064527</v>
+        <v>169.86732096713467</v>
       </c>
       <c r="J59" s="24">
         <f t="array" ref="J59:K59">[1]!ESP_dp_atm(C59,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>122.68564515736885</v>
+        <v>122.56348317032781</v>
       </c>
       <c r="K59" s="24">
         <v>0</v>
       </c>
       <c r="L59" s="24">
         <f t="shared" si="3"/>
-        <v>27.314354842631147</v>
+        <v>27.436516829672186</v>
       </c>
     </row>
     <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7772,37 +7774,37 @@
       </c>
       <c r="D60" s="16">
         <f>[1]!ESP_head_m(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2031.2780891910111</v>
+        <v>2024.5704484571427</v>
       </c>
       <c r="E60" s="23">
         <f>[1]!ESP_eff_fr(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.44586520719926198</v>
+        <v>0.44585600000000003</v>
       </c>
       <c r="F60" s="16">
         <f>[1]!ESP_power_W(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>59018.52810186689</v>
+        <v>58844.800000000003</v>
       </c>
       <c r="G60" s="23">
         <f t="array" ref="G60:H60">[1]!ESP_dp_atm(C60,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>130.1286293390865</v>
+        <v>129.79692418559554</v>
       </c>
       <c r="H60" s="23">
-        <v>9.1256312815988707</v>
+        <v>9.0826068727643587</v>
       </c>
       <c r="I60" s="24">
         <f t="shared" si="2"/>
-        <v>164.1286293390865</v>
+        <v>163.79692418559554</v>
       </c>
       <c r="J60" s="24">
         <f t="array" ref="J60:K60">[1]!ESP_dp_atm(C60,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>119.95542761014003</v>
+        <v>119.89849288196767</v>
       </c>
       <c r="K60" s="24">
         <v>0</v>
       </c>
       <c r="L60" s="24">
         <f t="shared" si="3"/>
-        <v>30.044572389859965</v>
+        <v>30.10150711803233</v>
       </c>
     </row>
     <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7812,37 +7814,37 @@
       </c>
       <c r="D61" s="16">
         <f>[1]!ESP_head_m(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2020.3643931509514</v>
+        <v>2019.001437498134</v>
       </c>
       <c r="E61" s="23">
         <f>[1]!ESP_eff_fr(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.48342014580555509</v>
+        <v>0.48608666666666667</v>
       </c>
       <c r="F61" s="16">
         <f>[1]!ESP_power_W(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>62969.074894128375</v>
+        <v>62781.599999999999</v>
       </c>
       <c r="G61" s="23">
         <f t="array" ref="G61:H61">[1]!ESP_dp_atm(C61,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>116.93588873820266</v>
+        <v>116.84194942723494</v>
       </c>
       <c r="H61" s="23">
-        <v>8.1990032746672057</v>
+        <v>8.1476538079321159</v>
       </c>
       <c r="I61" s="24">
         <f t="shared" si="2"/>
-        <v>150.93588873820266</v>
+        <v>150.84194942723494</v>
       </c>
       <c r="J61" s="24">
         <f t="array" ref="J61:K61">[1]!ESP_dp_atm(C61,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>116.56603676934304</v>
+        <v>116.52680461298908</v>
       </c>
       <c r="K61" s="24">
         <v>0</v>
       </c>
       <c r="L61" s="24">
         <f t="shared" si="3"/>
-        <v>33.433963230656957</v>
+        <v>33.473195387010918</v>
       </c>
     </row>
     <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7852,37 +7854,37 @@
       </c>
       <c r="D62" s="16">
         <f>[1]!ESP_head_m(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1989.3266704239254</v>
+        <v>1988.5365368434273</v>
       </c>
       <c r="E62" s="23">
         <f>[1]!ESP_eff_fr(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.5100872620854523</v>
+        <v>0.5120806506899056</v>
       </c>
       <c r="F62" s="16">
         <f>[1]!ESP_power_W(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>66960.878638733309</v>
+        <v>66718.399999999994</v>
       </c>
       <c r="G62" s="23">
         <f t="array" ref="G62:H62">[1]!ESP_dp_atm(C62,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>81.186572087555902</v>
+        <v>79.723370427708559</v>
       </c>
       <c r="H62" s="23">
-        <v>8.3062617324325458</v>
+        <v>8.2981334675662879</v>
       </c>
       <c r="I62" s="24">
         <f t="shared" si="2"/>
-        <v>115.1865720875559</v>
+        <v>113.72337042770856</v>
       </c>
       <c r="J62" s="24">
         <f t="array" ref="J62:K62">[1]!ESP_dp_atm(C62,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>112.65744239659986</v>
+        <v>112.51941724133229</v>
       </c>
       <c r="K62" s="24">
         <v>0</v>
       </c>
       <c r="L62" s="24">
         <f t="shared" si="3"/>
-        <v>37.342557603400138</v>
+        <v>37.480582758667708</v>
       </c>
     </row>
     <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7892,37 +7894,37 @@
       </c>
       <c r="D63" s="16">
         <f>[1]!ESP_head_m(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1936.8475559635747</v>
+        <v>1922.3785678842496</v>
       </c>
       <c r="E63" s="23">
         <f>[1]!ESP_eff_fr(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.52616029160024458</v>
+        <v>0.52654305882352948</v>
       </c>
       <c r="F63" s="16">
         <f>[1]!ESP_power_W(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>70946.321674411302</v>
+        <v>70655.200000000012</v>
       </c>
       <c r="G63" s="23">
         <f t="array" ref="G63:H63">[1]!ESP_dp_atm(C63,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-17.552562353048739</v>
       </c>
       <c r="H63" s="23">
         <v>0</v>
       </c>
       <c r="I63" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>16.447437646951261</v>
       </c>
       <c r="J63" s="24">
         <f t="array" ref="J63:K63">[1]!ESP_dp_atm(C63,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>108.31088464491512</v>
+        <v>108.20058172311749</v>
       </c>
       <c r="K63" s="24">
         <v>0</v>
       </c>
       <c r="L63" s="24">
         <f t="shared" si="3"/>
-        <v>41.68911535508488</v>
+        <v>41.799418276882506</v>
       </c>
     </row>
     <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7932,37 +7934,37 @@
       </c>
       <c r="D64" s="16">
         <f>[1]!ESP_head_m(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1862.7663410610517</v>
+        <v>1850.5771854374627</v>
       </c>
       <c r="E64" s="23">
         <f>[1]!ESP_eff_fr(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.53198606050368746</v>
+        <v>0.53146444907017465</v>
       </c>
       <c r="F64" s="16">
         <f>[1]!ESP_power_W(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>74886.312635145558</v>
+        <v>74572.458787077805</v>
       </c>
       <c r="G64" s="23">
         <f t="array" ref="G64:H64">[1]!ESP_dp_atm(C64,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-21.514961696106297</v>
       </c>
       <c r="H64" s="23">
         <v>0</v>
       </c>
       <c r="I64" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>12.485038303893703</v>
       </c>
       <c r="J64" s="24">
         <f t="array" ref="J64:K64">[1]!ESP_dp_atm(C64,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>103.53361043099135</v>
+        <v>103.40829422061751</v>
       </c>
       <c r="K64" s="24">
         <v>0</v>
       </c>
       <c r="L64" s="24">
         <f t="shared" si="3"/>
-        <v>46.466389569008655</v>
+        <v>46.591705779382494</v>
       </c>
     </row>
     <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7972,37 +7974,37 @@
       </c>
       <c r="D65" s="16">
         <f>[1]!ESP_head_m(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1767.7143177531982</v>
+        <v>1760.4814414113655</v>
       </c>
       <c r="E65" s="23">
         <f>[1]!ESP_eff_fr(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.52789357358705213</v>
+        <v>0.52530713966486131</v>
       </c>
       <c r="F65" s="16">
         <f>[1]!ESP_power_W(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>78749.846735545521</v>
+        <v>78435.47122188202</v>
       </c>
       <c r="G65" s="23">
         <f t="array" ref="G65:H65">[1]!ESP_dp_atm(C65,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-22.568639397347187</v>
       </c>
       <c r="H65" s="23">
         <v>0</v>
       </c>
       <c r="I65" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>11.431360602652813</v>
       </c>
       <c r="J65" s="24">
         <f t="array" ref="J65:K65">[1]!ESP_dp_atm(C65,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>98.273652885546809</v>
+        <v>98.123124752685015</v>
       </c>
       <c r="K65" s="24">
         <v>0</v>
       </c>
       <c r="L65" s="24">
         <f t="shared" si="3"/>
-        <v>51.726347114453191</v>
+        <v>51.876875247314985</v>
       </c>
     </row>
     <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8012,37 +8014,37 @@
       </c>
       <c r="D66" s="16">
         <f>[1]!ESP_head_m(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1652.7501232307104</v>
+        <v>1639.5996074343986</v>
       </c>
       <c r="E66" s="23">
         <f>[1]!ESP_eff_fr(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.51412310232417835</v>
+        <v>0.51165725907974968</v>
       </c>
       <c r="F66" s="16">
         <f>[1]!ESP_power_W(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>82513.566056219293</v>
+        <v>82228.459477783195</v>
       </c>
       <c r="G66" s="23">
         <f t="array" ref="G66:H66">[1]!ESP_dp_atm(C66,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-22.978109279786842</v>
       </c>
       <c r="H66" s="23">
         <v>0</v>
       </c>
       <c r="I66" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>11.021890720213158</v>
       </c>
       <c r="J66" s="24">
         <f t="array" ref="J66:K66">[1]!ESP_dp_atm(C66,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>92.388208349642838</v>
+        <v>92.317790956233068</v>
       </c>
       <c r="K66" s="24">
         <v>0</v>
       </c>
       <c r="L66" s="24">
         <f t="shared" si="3"/>
-        <v>57.611791650357162</v>
+        <v>57.682209043766932</v>
       </c>
     </row>
     <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8052,37 +8054,37 @@
       </c>
       <c r="D67" s="16">
         <f>[1]!ESP_head_m(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1518.9950842463231</v>
+        <v>1510.7995998787185</v>
       </c>
       <c r="E67" s="23">
         <f>[1]!ESP_eff_fr(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.49075527291652421</v>
+        <v>0.49253633052046891</v>
       </c>
       <c r="F67" s="16">
         <f>[1]!ESP_power_W(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>86161.319829146378</v>
+        <v>85824.900237699418</v>
       </c>
       <c r="G67" s="23">
         <f t="array" ref="G67:H67">[1]!ESP_dp_atm(C67,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-23.127425770378036</v>
       </c>
       <c r="H67" s="23">
         <v>0</v>
       </c>
       <c r="I67" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>10.872574229621964</v>
       </c>
       <c r="J67" s="24">
         <f t="array" ref="J67:K67">[1]!ESP_dp_atm(C67,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>85.508360976309561</v>
+        <v>85.618241424645092</v>
       </c>
       <c r="K67" s="24">
         <v>0</v>
       </c>
       <c r="L67" s="24">
         <f t="shared" si="3"/>
-        <v>64.491639023690439</v>
+        <v>64.381758575354908</v>
       </c>
     </row>
     <row r="68" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8092,37 +8094,37 @@
       </c>
       <c r="D68" s="16">
         <f>[1]!ESP_head_m(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1367.2685615229796</v>
+        <v>1369.4312864901201</v>
       </c>
       <c r="E68" s="23">
         <f>[1]!ESP_eff_fr(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.45764015433821842</v>
+        <v>0.45750336646250173</v>
       </c>
       <c r="F68" s="16">
         <f>[1]!ESP_power_W(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>89683.724723050022</v>
+        <v>89274.632868257089</v>
       </c>
       <c r="G68" s="23">
         <f t="array" ref="G68:H68">[1]!ESP_dp_atm(C68,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-23.164248198496935</v>
       </c>
       <c r="H68" s="23">
         <v>0</v>
       </c>
       <c r="I68" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>10.835751801503065</v>
       </c>
       <c r="J68" s="24">
         <f t="array" ref="J68:K68">[1]!ESP_dp_atm(C68,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>76.743668148634299</v>
+        <v>76.979384153378675</v>
       </c>
       <c r="K68" s="24">
         <v>0</v>
       </c>
       <c r="L68" s="24">
         <f t="shared" si="3"/>
-        <v>73.256331851365701</v>
+        <v>73.020615846621325</v>
       </c>
     </row>
     <row r="69" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8132,37 +8134,37 @@
       </c>
       <c r="D69" s="16">
         <f>[1]!ESP_head_m(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1197.723294162008</v>
+        <v>1208.7462447883975</v>
       </c>
       <c r="E69" s="23">
         <f>[1]!ESP_eff_fr(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.41432634638111182</v>
+        <v>0.41032534236886714</v>
       </c>
       <c r="F69" s="16">
         <f>[1]!ESP_power_W(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>93077.725128769918</v>
+        <v>92672.643644161086</v>
       </c>
       <c r="G69" s="23">
         <f t="array" ref="G69:H69">[1]!ESP_dp_atm(C69,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-23.154358419517266</v>
       </c>
       <c r="H69" s="23">
         <v>0</v>
       </c>
       <c r="I69" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>10.845641580482734</v>
       </c>
       <c r="J69" s="24">
         <f t="array" ref="J69:K69">[1]!ESP_dp_atm(C69,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>62.948765484163985</v>
+        <v>62.290471488643774</v>
       </c>
       <c r="K69" s="24">
         <v>0</v>
       </c>
       <c r="L69" s="24">
         <f t="shared" si="3"/>
-        <v>87.051234515836015</v>
+        <v>87.709528511356226</v>
       </c>
     </row>
     <row r="70" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8172,37 +8174,37 @@
       </c>
       <c r="D70" s="16">
         <f>[1]!ESP_head_m(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1009.480744051288</v>
+        <v>1018.6680660649297</v>
       </c>
       <c r="E70" s="23">
         <f>[1]!ESP_eff_fr(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.35999006769982811</v>
+        <v>0.35919520174482006</v>
       </c>
       <c r="F70" s="16">
         <f>[1]!ESP_power_W(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>96346.153444634736</v>
+        <v>96009.582794520553</v>
       </c>
       <c r="G70" s="23">
         <f t="array" ref="G70:H70">[1]!ESP_dp_atm(C70,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-23.135653795019646</v>
       </c>
       <c r="H70" s="23">
         <v>0</v>
       </c>
       <c r="I70" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>10.864346204980354</v>
       </c>
       <c r="J70" s="24">
         <f t="array" ref="J70:K70">[1]!ESP_dp_atm(C70,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>42.448868054443864</v>
+        <v>41.440120181872828</v>
       </c>
       <c r="K70" s="24">
         <v>0</v>
       </c>
       <c r="L70" s="24">
         <f t="shared" si="3"/>
-        <v>107.55113194555614</v>
+        <v>108.55987981812717</v>
       </c>
     </row>
     <row r="71" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8212,37 +8214,37 @@
       </c>
       <c r="D71" s="16">
         <f>[1]!ESP_head_m(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>800.26644027343752</v>
+        <v>791.86979680000002</v>
       </c>
       <c r="E71" s="23">
         <f>[1]!ESP_eff_fr(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.29336424385681648</v>
+        <v>0.29873857142857141</v>
       </c>
       <c r="F71" s="16">
         <f>[1]!ESP_power_W(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>99497.290361834501</v>
+        <v>99145.200000000012</v>
       </c>
       <c r="G71" s="23">
         <f t="array" ref="G71:H71">[1]!ESP_dp_atm(C71,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-23.141250085591555</v>
       </c>
       <c r="H71" s="23">
         <v>0</v>
       </c>
       <c r="I71" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>10.858749914408445</v>
       </c>
       <c r="J71" s="24">
         <f t="array" ref="J71:K71">[1]!ESP_dp_atm(C71,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>18.774206398331586</v>
+        <v>18.046684637238485</v>
       </c>
       <c r="K71" s="24">
         <v>0</v>
       </c>
       <c r="L71" s="24">
         <f t="shared" si="3"/>
-        <v>131.22579360166841</v>
+        <v>131.95331536276151</v>
       </c>
     </row>
     <row r="72" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8252,37 +8254,37 @@
       </c>
       <c r="D72" s="16">
         <f>[1]!ESP_head_m(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>566.0453235139787</v>
+        <v>552.87816675555564</v>
       </c>
       <c r="E72" s="23">
         <f>[1]!ESP_eff_fr(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.21266759536740198</v>
+        <v>0.21116063492063494</v>
       </c>
       <c r="F72" s="16">
         <f>[1]!ESP_power_W(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>102544.42514979342</v>
+        <v>102097.80000000002</v>
       </c>
       <c r="G72" s="23">
         <f t="array" ref="G72:H72">[1]!ESP_dp_atm(C72,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-23.146681557581989</v>
       </c>
       <c r="H72" s="23">
         <v>0</v>
       </c>
       <c r="I72" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>10.853318442418011</v>
       </c>
       <c r="J72" s="24">
         <f t="array" ref="J72:K72">[1]!ESP_dp_atm(C72,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>0</v>
+        <v>-3.5060586799937141</v>
       </c>
       <c r="K72" s="24">
         <v>0</v>
       </c>
       <c r="L72" s="24">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>153.50605867999371</v>
       </c>
     </row>
     <row r="73" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8292,37 +8294,37 @@
       </c>
       <c r="D73" s="16">
         <f>[1]!ESP_head_m(C73,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>300.65709046950894</v>
+        <v>289.35480000000001</v>
       </c>
       <c r="E73" s="23">
         <f>[1]!ESP_eff_fr(C73,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.11553372574483833</v>
+        <v>0.11115000000000001</v>
       </c>
       <c r="F73" s="16">
         <f>[1]!ESP_power_W(C73,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>105505.41594154228</v>
+        <v>105050.40000000001</v>
       </c>
       <c r="G73" s="23">
         <f t="array" ref="G73:H73">[1]!ESP_dp_atm(C73,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-23.146681557581978</v>
       </c>
       <c r="H73" s="23">
         <v>0</v>
       </c>
       <c r="I73" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>10.853318442418022</v>
       </c>
       <c r="J73" s="24">
         <f t="array" ref="J73:K73">[1]!ESP_dp_atm(C73,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>0</v>
+        <v>-14.789658006852335</v>
       </c>
       <c r="K73" s="24">
         <v>0</v>
       </c>
       <c r="L73" s="24">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>164.78965800685233</v>
       </c>
     </row>
     <row r="74" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8332,37 +8334,37 @@
       </c>
       <c r="D74" s="16">
         <f>[1]!ESP_head_m(C74,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0</v>
+        <v>-5.8969756161486586E-16</v>
       </c>
       <c r="E74" s="23">
         <f>[1]!ESP_eff_fr(C74,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0</v>
+        <v>4.0657581468206416E-19</v>
       </c>
       <c r="F74" s="16">
         <f>[1]!ESP_power_W(C74,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>108402.25001909083</v>
+        <v>108003</v>
       </c>
       <c r="G74" s="23">
         <f t="array" ref="G74:H74">[1]!ESP_dp_atm(C74,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0</v>
+        <v>-23.146681557581982</v>
       </c>
       <c r="H74" s="23">
         <v>0</v>
       </c>
       <c r="I74" s="24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>10.853318442418018</v>
       </c>
       <c r="J74" s="24">
         <f t="array" ref="J74:K74">[1]!ESP_dp_atm(C74,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>0</v>
+        <v>-25.007270569056317</v>
       </c>
       <c r="K74" s="24">
         <v>0</v>
       </c>
       <c r="L74" s="24">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>175.00727056905632</v>
       </c>
     </row>
     <row r="75" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
